--- a/output/size_tables_llbean.xlsx
+++ b/output/size_tables_llbean.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDA\test\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB8D281-8DF4-45DB-9E2C-3224E0BA571D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,260 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>Bust</t>
+  </si>
+  <si>
+    <t>Waist</t>
+  </si>
+  <si>
+    <t>Hips – Curvy Fit</t>
+  </si>
+  <si>
+    <t>Torso</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natural Waist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular Sleeve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Petite Sleeve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular Torso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long Torso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hips</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1X</t>
+  </si>
+  <si>
+    <t>2X</t>
+  </si>
+  <si>
+    <t>3X</t>
+  </si>
+  <si>
+    <t>18W</t>
+  </si>
+  <si>
+    <t>20W</t>
+  </si>
+  <si>
+    <t>22W</t>
+  </si>
+  <si>
+    <t>24W</t>
+  </si>
+  <si>
+    <t>26W</t>
+  </si>
+  <si>
+    <t>Hips/Seat</t>
+  </si>
+  <si>
+    <t>119 ¼</t>
+  </si>
+  <si>
+    <t>124 ½</t>
+  </si>
+  <si>
+    <t>129 ½</t>
+  </si>
+  <si>
+    <t>134 ½</t>
+  </si>
+  <si>
+    <t>139 ¾</t>
+  </si>
+  <si>
+    <t>170-177</t>
+  </si>
+  <si>
+    <t>178-181</t>
+  </si>
+  <si>
+    <t>170-177</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Height (Inseam)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Petite 160 cm and under, Regular 161 cm - 168 cm, Medium Tall 169 cm - 174 cm, Tall 175 cm and over.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Petite 160 cm and under, Regular 161 cm - 168 cm, Medium Tall 169 cm - 174 cm, Tall 176 cm and over.</t>
+  </si>
+  <si>
+    <t>Petite 160 cm and under, Regular 161 cm - 168 cm, Medium Tall 169 cm - 174 cm, Tall 177 cm and over.</t>
+  </si>
+  <si>
+    <t>Petite 160 cm and under, Regular 161 cm - 168 cm, Medium Tall 169 cm - 174 cm, Tall 178 cm and over.</t>
+  </si>
+  <si>
+    <t>Petite 160 cm and under, Regular 161 cm - 168 cm, Medium Tall 169 cm - 174 cm, Tall 179 cm and over.</t>
+  </si>
+  <si>
+    <t>Petite 160 cm and under, Regular 161 cm - 168 cm, Medium Tall 169 cm - 174 cm, Tall 180 cm and over.</t>
+  </si>
+  <si>
+    <t>Petite 160 cm and under, Regular 161 cm - 168 cm, Medium Tall 169 cm - 174 cm, Tall 181 cm and over.</t>
+  </si>
+  <si>
+    <t>Petite 160 cm and under, Regular 161 cm - 168 cm, Medium Tall 169 cm - 174 cm, Tall 182 cm and over.</t>
+  </si>
+  <si>
+    <t>Petite 160 cm and under, Regular 161 cm - 168 cm, Medium Tall 169 cm - 174 cm, Tall 183 cm and over.</t>
+  </si>
+  <si>
+    <t>Petite 160 cm and under, Regular 161 cm - 168 cm, Medium Tall 169 cm - 174 cm, Tall 176 cm and over.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성 상의, 하의 - Regular</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성 상의, 하의 - Plus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXL</t>
+  </si>
+  <si>
+    <t>XXXL</t>
+  </si>
+  <si>
+    <t>Neck</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>86-91</t>
+  </si>
+  <si>
+    <t>97-102</t>
+  </si>
+  <si>
+    <t>107-112</t>
+  </si>
+  <si>
+    <t>117-122</t>
+  </si>
+  <si>
+    <t>127-132</t>
+  </si>
+  <si>
+    <t>137-142</t>
+  </si>
+  <si>
+    <t>71-76</t>
+  </si>
+  <si>
+    <t>81-86</t>
+  </si>
+  <si>
+    <t>91-97</t>
+  </si>
+  <si>
+    <t>102-107</t>
+  </si>
+  <si>
+    <t>112-117</t>
+  </si>
+  <si>
+    <t>122-127</t>
+  </si>
+  <si>
+    <t>Regular Sleeve</t>
+  </si>
+  <si>
+    <t>Tall Sleeve</t>
+  </si>
+  <si>
+    <t>Regular 173 cm - 183 cm, Tall 186 cm - 191, Tall measures 5 cm longer overall, 2.5 cm at sleeves.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regular 173 cm - 183 cm, Tall 186 cm - 191, Tall measures 5 cm longer overall, 2.6 cm at sleeves.</t>
+  </si>
+  <si>
+    <t>Regular 173 cm - 183 cm, Tall 186 cm - 191, Tall measures 5 cm longer overall, 2.7 cm at sleeves.</t>
+  </si>
+  <si>
+    <t>Regular 173 cm - 183 cm, Tall 186 cm - 191, Tall measures 5 cm longer overall, 2.8 cm at sleeves.</t>
+  </si>
+  <si>
+    <t>Regular 173 cm - 183 cm, Tall 186 cm - 191, Tall measures 5 cm longer overall, 2.9 cm at sleeves.</t>
+  </si>
+  <si>
+    <t>Regular 173 cm - 183 cm, Tall 186 cm - 191, Tall measures 5 cm longer overall, 2.10 cm at sleeves.</t>
+  </si>
+  <si>
+    <t>남성 상의, 하의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +285,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -45,15 +329,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +681,712 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:G21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3">
+        <v>18</v>
+      </c>
+      <c r="J3" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5">
+        <v>86</v>
+      </c>
+      <c r="C4" s="5">
+        <v>89</v>
+      </c>
+      <c r="D4" s="5">
+        <v>91</v>
+      </c>
+      <c r="E4" s="5">
+        <v>94</v>
+      </c>
+      <c r="F4" s="5">
+        <v>98</v>
+      </c>
+      <c r="G4" s="5">
+        <v>100</v>
+      </c>
+      <c r="H4" s="5">
+        <v>104</v>
+      </c>
+      <c r="I4" s="5">
+        <v>109</v>
+      </c>
+      <c r="J4" s="5">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5">
+        <v>64</v>
+      </c>
+      <c r="C5" s="5">
+        <v>66</v>
+      </c>
+      <c r="D5" s="5">
+        <v>69</v>
+      </c>
+      <c r="E5" s="5">
+        <v>71</v>
+      </c>
+      <c r="F5" s="5">
+        <v>75</v>
+      </c>
+      <c r="G5" s="5">
+        <v>79</v>
+      </c>
+      <c r="H5" s="5">
+        <v>83</v>
+      </c>
+      <c r="I5" s="5">
+        <v>88</v>
+      </c>
+      <c r="J5" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5">
+        <v>91</v>
+      </c>
+      <c r="C6" s="5">
+        <v>94</v>
+      </c>
+      <c r="D6" s="5">
+        <v>97</v>
+      </c>
+      <c r="E6" s="5">
+        <v>99</v>
+      </c>
+      <c r="F6" s="5">
+        <v>103</v>
+      </c>
+      <c r="G6" s="5">
+        <v>107</v>
+      </c>
+      <c r="H6" s="5">
+        <v>110</v>
+      </c>
+      <c r="I6" s="5">
+        <v>120</v>
+      </c>
+      <c r="J6" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5">
+        <v>98</v>
+      </c>
+      <c r="C7" s="5">
+        <v>101</v>
+      </c>
+      <c r="D7" s="5">
+        <v>103</v>
+      </c>
+      <c r="E7" s="5">
+        <v>106</v>
+      </c>
+      <c r="F7" s="5">
+        <v>110</v>
+      </c>
+      <c r="G7" s="5">
+        <v>113</v>
+      </c>
+      <c r="H7" s="5">
+        <v>117</v>
+      </c>
+      <c r="I7" s="5">
+        <v>122</v>
+      </c>
+      <c r="J7" s="5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
+        <v>74</v>
+      </c>
+      <c r="C8" s="5">
+        <v>76</v>
+      </c>
+      <c r="D8" s="5">
+        <v>78</v>
+      </c>
+      <c r="E8" s="5">
+        <v>79</v>
+      </c>
+      <c r="F8" s="5">
+        <v>80</v>
+      </c>
+      <c r="G8" s="5">
+        <v>81</v>
+      </c>
+      <c r="H8" s="5">
+        <v>83</v>
+      </c>
+      <c r="I8" s="5">
+        <v>84</v>
+      </c>
+      <c r="J8" s="5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="5">
+        <v>71</v>
+      </c>
+      <c r="C9" s="5">
+        <v>74</v>
+      </c>
+      <c r="D9" s="5">
+        <v>75</v>
+      </c>
+      <c r="E9" s="5">
+        <v>76</v>
+      </c>
+      <c r="F9" s="5">
+        <v>78</v>
+      </c>
+      <c r="G9" s="5">
+        <v>79</v>
+      </c>
+      <c r="H9" s="5">
+        <v>80</v>
+      </c>
+      <c r="I9" s="5">
+        <v>81</v>
+      </c>
+      <c r="J9" s="5">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="5">
+        <v>145</v>
+      </c>
+      <c r="C10" s="5">
+        <v>149</v>
+      </c>
+      <c r="D10" s="5">
+        <v>152</v>
+      </c>
+      <c r="E10" s="5">
+        <v>156</v>
+      </c>
+      <c r="F10" s="5">
+        <v>160</v>
+      </c>
+      <c r="G10" s="5">
+        <v>164</v>
+      </c>
+      <c r="H10" s="5">
+        <v>168</v>
+      </c>
+      <c r="I10" s="5">
+        <v>171</v>
+      </c>
+      <c r="J10" s="5">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5">
+        <v>150</v>
+      </c>
+      <c r="C11" s="5">
+        <v>154</v>
+      </c>
+      <c r="D11" s="5">
+        <v>157</v>
+      </c>
+      <c r="E11" s="5">
+        <v>161</v>
+      </c>
+      <c r="F11" s="5">
+        <v>165</v>
+      </c>
+      <c r="G11" s="5">
+        <v>169</v>
+      </c>
+      <c r="H11" s="5">
+        <v>173</v>
+      </c>
+      <c r="I11" s="5">
+        <v>177</v>
+      </c>
+      <c r="J11" s="5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5">
+        <v>113</v>
+      </c>
+      <c r="C16" s="5">
+        <v>118</v>
+      </c>
+      <c r="D16" s="5">
+        <v>123</v>
+      </c>
+      <c r="E16" s="5">
+        <v>128</v>
+      </c>
+      <c r="F16" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>91</v>
+      </c>
+      <c r="C17" s="5">
+        <v>96</v>
+      </c>
+      <c r="D17" s="5">
+        <v>102</v>
+      </c>
+      <c r="E17" s="5">
+        <v>107</v>
+      </c>
+      <c r="F17" s="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="6">
+        <v>166</v>
+      </c>
+      <c r="C19" s="6">
+        <v>166</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="3">
+        <v>37</v>
+      </c>
+      <c r="C23" s="3">
+        <v>39</v>
+      </c>
+      <c r="D23" s="3">
+        <v>42</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44</v>
+      </c>
+      <c r="F23" s="3">
+        <v>47</v>
+      </c>
+      <c r="G23" s="3">
+        <v>49</v>
+      </c>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="3">
+        <v>84</v>
+      </c>
+      <c r="C26" s="3">
+        <v>86</v>
+      </c>
+      <c r="D26" s="3">
+        <v>89</v>
+      </c>
+      <c r="E26" s="3">
+        <v>91</v>
+      </c>
+      <c r="F26" s="3">
+        <v>94</v>
+      </c>
+      <c r="G26" s="3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="3">
+        <v>86</v>
+      </c>
+      <c r="C27" s="3">
+        <v>89</v>
+      </c>
+      <c r="D27" s="3">
+        <v>91</v>
+      </c>
+      <c r="E27" s="3">
+        <v>94</v>
+      </c>
+      <c r="F27" s="3">
+        <v>97</v>
+      </c>
+      <c r="G27" s="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>